--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value6.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value6.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.08933177016766</v>
+        <v>3.069490432739258</v>
       </c>
       <c r="B1">
-        <v>2.586657142332</v>
+        <v>6.327652454376221</v>
       </c>
       <c r="C1">
-        <v>2.658472849981319</v>
+        <v>6.441517353057861</v>
       </c>
       <c r="D1">
-        <v>0.7187911963811223</v>
+        <v>6.858065128326416</v>
       </c>
       <c r="E1">
-        <v>0.5647042540098056</v>
+        <v>5.033783435821533</v>
       </c>
     </row>
   </sheetData>
